--- a/ScenarioQualityChecker.xlsx
+++ b/ScenarioQualityChecker.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\University\SemV\IO\ScenarioQualityCheckerI8_2_2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F65AD41-7670-4766-96E0-E4EFD388532A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11208" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opis" sheetId="3" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Element rejestru produktu</t>
   </si>
@@ -45,9 +51,6 @@
   </si>
   <si>
     <t>Zadania</t>
-  </si>
-  <si>
-    <t>Element przekopiowany z zakładki Rejestr Produktu</t>
   </si>
   <si>
     <t>Zadanie nr 1 do elementu rejestru produktu</t>
@@ -158,11 +161,14 @@
   <si>
     <t>Cel Sprintu:</t>
   </si>
+  <si>
+    <t>suma 60h na zespół</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -175,6 +181,8 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,6 +190,8 @@
       <sz val="18"/>
       <color rgb="FF4F81BD"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,16 +294,16 @@
     <cellStyle name="Hiperłącze" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Standardowy" xfId="0" builtinId="0"/>
-    <cellStyle name="Użyte hiperłącze" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Użyte hiperłącze" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Odwiedzone hiperłącze" xfId="18" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -348,30 +358,38 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A1:E8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:E8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Element rejestru produktu" dataDxfId="8"/>
-    <tableColumn id="2" name="Ważność" dataDxfId="7"/>
-    <tableColumn id="3" name="Pracochłonność" dataDxfId="6"/>
-    <tableColumn id="4" name="Business Value (BV)" dataDxfId="5"/>
-    <tableColumn id="5" name="Kryteria akceptacji" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Element rejestru produktu" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ważność" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Pracochłonność" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Business Value (BV)" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Kryteria akceptacji" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A4:C44" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A4:C44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A4:C44" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A4:C44" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Element rejestru produktu" dataDxfId="2"/>
-    <tableColumn id="2" name="Zadania" dataDxfId="1"/>
-    <tableColumn id="3" name="Pracochłonność " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Element rejestru produktu" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Zadania" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Pracochłonność " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -698,29 +716,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="95.5" customWidth="1"/>
+    <col min="1" max="1" width="95.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23">
+    <row r="1" spans="1:1" ht="23.65" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="85.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="85" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="1:1" ht="389.55" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="375">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -734,23 +752,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="52" style="3" customWidth="1"/>
     <col min="2" max="2" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.1796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
+    <row r="1" spans="1:5" ht="18.3" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -767,93 +785,120 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="120">
+    <row r="2" spans="1:5" ht="124.7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4">
         <v>20</v>
       </c>
+      <c r="C2" s="4">
+        <v>15</v>
+      </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="77.95" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="75">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B3" s="4">
         <v>15</v>
       </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="77.95" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="75">
-      <c r="A4" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B4" s="4">
         <v>12</v>
       </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="105">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="124.7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="4">
         <v>10</v>
       </c>
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="93.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="90">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>10</v>
       </c>
+      <c r="C6" s="4">
+        <v>10</v>
+      </c>
       <c r="D6" s="4">
         <v>1.5</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="124.7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="120">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="B7" s="4">
         <v>10</v>
       </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.5</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
@@ -874,26 +919,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="48.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="45.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="48.81640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="33" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18">
+    <row r="4" spans="1:3" ht="18.3" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -901,58 +949,83 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="46.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="46.75" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="46.75" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="46.75" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="46.75" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="46.75" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
